--- a/IG_USAloaded.xlsx
+++ b/IG_USAloaded.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\indoorGolfDir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\indoorgolfdirgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{73936BC2-2756-4A69-94FD-3D1AD9CF4E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3016CC85-B955-4E34-877B-9ABB8901417E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4395" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{352B9BC1-5AEA-48E0-A71B-6240F1F026E7}"/>
   </bookViews>
   <sheets>
     <sheet name="IG_NY" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7778" uniqueCount="3382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7780" uniqueCount="3382">
   <si>
     <t>MW4etd</t>
   </si>
@@ -11092,8 +11105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AAFE49-5EAD-4441-AA8B-FE58302891F4}">
   <dimension ref="A1:AE702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:XFD55"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13897,185 +13910,133 @@
       </c>
     </row>
     <row r="56" spans="1:31" s="5" customFormat="1">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="5" t="s">
         <v>3380</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="5">
         <v>-105</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="5" t="s">
         <v>3377</v>
       </c>
-      <c r="H56" t="s">
-        <v>13</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="H56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L56" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="M56" t="s">
-        <v>18</v>
-      </c>
-      <c r="N56" t="s">
+      <c r="M56" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N56" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="O56"/>
-      <c r="P56"/>
-      <c r="Q56"/>
-      <c r="R56"/>
-      <c r="S56"/>
-      <c r="T56"/>
-      <c r="U56"/>
-      <c r="V56"/>
-      <c r="W56"/>
-      <c r="X56"/>
-      <c r="Y56"/>
-      <c r="Z56"/>
-      <c r="AA56"/>
-      <c r="AB56"/>
-      <c r="AC56"/>
-      <c r="AD56"/>
-      <c r="AE56"/>
     </row>
     <row r="57" spans="1:31" s="5" customFormat="1">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="5" t="s">
         <v>3381</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="5">
         <v>4.8</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="5">
         <v>-84</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="5" t="s">
         <v>3363</v>
       </c>
-      <c r="H57" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="H57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J57" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K57" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L57" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="M57"/>
-      <c r="N57" t="s">
+      <c r="N57" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="O57"/>
-      <c r="P57"/>
-      <c r="Q57"/>
-      <c r="R57"/>
-      <c r="S57"/>
-      <c r="T57"/>
-      <c r="U57"/>
-      <c r="V57"/>
-      <c r="W57"/>
-      <c r="X57"/>
-      <c r="Y57"/>
-      <c r="Z57"/>
-      <c r="AA57"/>
-      <c r="AB57"/>
-      <c r="AC57"/>
-      <c r="AD57"/>
-      <c r="AE57"/>
     </row>
     <row r="58" spans="1:31" s="5" customFormat="1">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="4" t="s">
         <v>2727</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="5" t="s">
         <v>2728</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="5">
         <v>5</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="5">
         <v>-28</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="G58" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" t="s">
-        <v>13</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="G58" s="5" t="s">
+        <v>3363</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="5" t="s">
         <v>2729</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K58" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L58" s="5" t="s">
         <v>2730</v>
       </c>
-      <c r="M58" t="s">
-        <v>18</v>
-      </c>
-      <c r="N58" t="s">
+      <c r="M58" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N58" s="5" t="s">
         <v>2731</v>
       </c>
-      <c r="O58"/>
-      <c r="P58"/>
-      <c r="Q58"/>
-      <c r="R58"/>
-      <c r="S58"/>
-      <c r="T58"/>
-      <c r="U58"/>
-      <c r="V58"/>
-      <c r="W58"/>
-      <c r="X58"/>
-      <c r="Y58"/>
-      <c r="Z58"/>
-      <c r="AA58"/>
-      <c r="AB58"/>
-      <c r="AC58"/>
-      <c r="AD58"/>
-      <c r="AE58"/>
     </row>
     <row r="59" spans="1:31" s="7" customFormat="1">
       <c r="A59" s="6" t="s">
@@ -14429,64 +14390,46 @@
       <c r="AD66" s="5"/>
       <c r="AE66" s="5"/>
     </row>
-    <row r="67" spans="1:31" s="7" customFormat="1">
-      <c r="A67" s="3" t="s">
+    <row r="67" spans="1:31" s="5" customFormat="1">
+      <c r="A67" s="4" t="s">
         <v>2754</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="5" t="s">
         <v>2755</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="5">
         <v>5</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="5">
         <v>-6</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="5" t="s">
         <v>3373</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="G67" s="13" t="s">
+      <c r="G67" s="5" t="s">
         <v>3374</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="5" t="s">
         <v>2756</v>
       </c>
-      <c r="I67"/>
-      <c r="J67" t="s">
+      <c r="J67" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K67" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L67" t="s">
+      <c r="L67" s="5" t="s">
         <v>2757</v>
       </c>
-      <c r="M67" t="s">
-        <v>18</v>
-      </c>
-      <c r="N67" t="s">
+      <c r="M67" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N67" s="5" t="s">
         <v>2758</v>
       </c>
-      <c r="O67"/>
-      <c r="P67"/>
-      <c r="Q67"/>
-      <c r="R67"/>
-      <c r="S67"/>
-      <c r="T67"/>
-      <c r="U67"/>
-      <c r="V67"/>
-      <c r="W67"/>
-      <c r="X67"/>
-      <c r="Y67"/>
-      <c r="Z67"/>
-      <c r="AA67"/>
-      <c r="AB67"/>
-      <c r="AC67"/>
-      <c r="AD67"/>
-      <c r="AE67"/>
     </row>
     <row r="68" spans="1:31" s="7" customFormat="1">
       <c r="A68" s="6" t="s">
@@ -14945,47 +14888,47 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="78" spans="1:31">
-      <c r="A78" s="3" t="s">
+    <row r="78" spans="1:31" s="5" customFormat="1">
+      <c r="A78" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="5">
         <v>4.8</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="5">
         <v>-27</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="G78" t="s">
-        <v>14</v>
-      </c>
-      <c r="H78" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="G78" s="5" t="s">
+        <v>3363</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="J78" t="s">
+      <c r="J78" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K78" t="s">
+      <c r="K78" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="L78" t="s">
+      <c r="L78" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="M78" t="s">
-        <v>18</v>
-      </c>
-      <c r="N78" t="s">
+      <c r="M78" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N78" s="5" t="s">
         <v>453</v>
       </c>
     </row>
@@ -15018,35 +14961,38 @@
         <v>917</v>
       </c>
     </row>
-    <row r="80" spans="1:31">
-      <c r="A80" s="3" t="s">
+    <row r="80" spans="1:31" s="5" customFormat="1">
+      <c r="A80" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="5">
         <v>5</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="5">
         <v>-10</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="H80" t="s">
+      <c r="G80" s="5" t="s">
+        <v>3367</v>
+      </c>
+      <c r="H80" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="L80" t="s">
+      <c r="L80" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="M80" t="s">
-        <v>18</v>
-      </c>
-      <c r="N80" t="s">
+      <c r="M80" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N80" s="5" t="s">
         <v>474</v>
       </c>
     </row>
@@ -15309,57 +15255,33 @@
       </c>
     </row>
     <row r="87" spans="1:31" s="5" customFormat="1">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C87">
-        <v>4.2</v>
-      </c>
-      <c r="D87">
-        <v>-5</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="E87" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="G87"/>
-      <c r="H87" t="s">
+      <c r="G87" s="5" t="s">
+        <v>3374</v>
+      </c>
+      <c r="H87" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="I87"/>
-      <c r="J87"/>
-      <c r="K87"/>
-      <c r="L87" t="s">
+      <c r="L87" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="M87" t="s">
-        <v>18</v>
-      </c>
-      <c r="N87" t="s">
+      <c r="M87" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N87" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="O87"/>
-      <c r="P87"/>
-      <c r="Q87"/>
-      <c r="R87"/>
-      <c r="S87"/>
-      <c r="T87"/>
-      <c r="U87"/>
-      <c r="V87"/>
-      <c r="W87"/>
-      <c r="X87"/>
-      <c r="Y87"/>
-      <c r="Z87"/>
-      <c r="AA87"/>
-      <c r="AB87"/>
-      <c r="AC87"/>
-      <c r="AD87"/>
-      <c r="AE87"/>
     </row>
     <row r="88" spans="1:31" s="7" customFormat="1">
       <c r="A88" s="6" t="s">
@@ -15399,47 +15321,47 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="89" spans="1:31">
-      <c r="A89" s="3" t="s">
+    <row r="89" spans="1:31" s="5" customFormat="1">
+      <c r="A89" s="4" t="s">
         <v>2842</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="5" t="s">
         <v>2843</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="5">
         <v>4.8</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="5">
         <v>-23</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="5" t="s">
         <v>3363</v>
       </c>
-      <c r="H89" t="s">
-        <v>13</v>
-      </c>
-      <c r="I89" t="s">
+      <c r="H89" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89" s="5" t="s">
         <v>2844</v>
       </c>
-      <c r="J89" t="s">
+      <c r="J89" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K89" t="s">
+      <c r="K89" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L89" t="s">
+      <c r="L89" s="5" t="s">
         <v>2845</v>
       </c>
-      <c r="M89" t="s">
-        <v>18</v>
-      </c>
-      <c r="N89" t="s">
+      <c r="M89" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N89" s="5" t="s">
         <v>2846</v>
       </c>
     </row>
@@ -15487,66 +15409,49 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="91" spans="1:31" s="7" customFormat="1">
-      <c r="A91" s="3" t="s">
+    <row r="91" spans="1:31" s="5" customFormat="1">
+      <c r="A91" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="5">
         <v>-42</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="G91" t="s">
-        <v>14</v>
-      </c>
-      <c r="H91" t="s">
-        <v>13</v>
-      </c>
-      <c r="I91" t="s">
+      <c r="G91" s="5" t="s">
+        <v>3362</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I91" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="J91" t="s">
+      <c r="J91" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K91" t="s">
+      <c r="K91" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="L91" t="s">
+      <c r="L91" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="M91" t="s">
-        <v>18</v>
-      </c>
-      <c r="N91" t="s">
+      <c r="M91" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N91" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="O91"/>
-      <c r="P91"/>
-      <c r="Q91"/>
-      <c r="R91"/>
-      <c r="S91"/>
-      <c r="T91"/>
-      <c r="U91"/>
-      <c r="V91"/>
-      <c r="W91"/>
-      <c r="X91"/>
-      <c r="Y91"/>
-      <c r="Z91"/>
-      <c r="AA91"/>
-      <c r="AB91"/>
-      <c r="AC91"/>
-      <c r="AD91"/>
-      <c r="AE91"/>
     </row>
     <row r="92" spans="1:31">
       <c r="A92" s="6" t="s">
@@ -15648,64 +15553,46 @@
         <v>56</v>
       </c>
     </row>
-    <row r="94" spans="1:31" s="7" customFormat="1">
-      <c r="A94" s="3" t="s">
+    <row r="94" spans="1:31" s="5" customFormat="1">
+      <c r="A94" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="5">
         <v>-7</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="G94" t="s">
-        <v>14</v>
-      </c>
-      <c r="H94" t="s">
-        <v>13</v>
-      </c>
-      <c r="I94" t="s">
+      <c r="G94" s="5" t="s">
+        <v>3377</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="J94" t="s">
+      <c r="J94" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K94"/>
-      <c r="L94" t="s">
+      <c r="L94" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="M94" t="s">
-        <v>18</v>
-      </c>
-      <c r="N94" t="s">
+      <c r="M94" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N94" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="O94"/>
-      <c r="P94"/>
-      <c r="Q94"/>
-      <c r="R94"/>
-      <c r="S94"/>
-      <c r="T94"/>
-      <c r="U94"/>
-      <c r="V94"/>
-      <c r="W94"/>
-      <c r="X94"/>
-      <c r="Y94"/>
-      <c r="Z94"/>
-      <c r="AA94"/>
-      <c r="AB94"/>
-      <c r="AC94"/>
-      <c r="AD94"/>
-      <c r="AE94"/>
     </row>
     <row r="95" spans="1:31">
       <c r="A95" s="3" t="s">
@@ -15727,7 +15614,7 @@
         <v>788</v>
       </c>
       <c r="G95" t="s">
-        <v>14</v>
+        <v>3363</v>
       </c>
       <c r="H95" t="s">
         <v>13</v>
@@ -15759,7 +15646,7 @@
         <v>788</v>
       </c>
       <c r="G96" t="s">
-        <v>14</v>
+        <v>3362</v>
       </c>
       <c r="H96" t="s">
         <v>13</v>
@@ -15961,7 +15848,7 @@
         <v>788</v>
       </c>
       <c r="G101" t="s">
-        <v>14</v>
+        <v>3363</v>
       </c>
       <c r="H101" t="s">
         <v>13</v>
@@ -15985,66 +15872,49 @@
         <v>767</v>
       </c>
     </row>
-    <row r="102" spans="1:31" s="7" customFormat="1">
-      <c r="A102" s="3" t="s">
+    <row r="102" spans="1:31" s="5" customFormat="1">
+      <c r="A102" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="5">
         <v>-357</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="G102" t="s">
-        <v>14</v>
-      </c>
-      <c r="H102" t="s">
-        <v>13</v>
-      </c>
-      <c r="I102" t="s">
+      <c r="G102" s="5" t="s">
+        <v>3374</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="J102" t="s">
+      <c r="J102" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K102" t="s">
+      <c r="K102" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="L102" t="s">
+      <c r="L102" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="M102" t="s">
-        <v>18</v>
-      </c>
-      <c r="N102" t="s">
+      <c r="M102" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N102" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="O102"/>
-      <c r="P102"/>
-      <c r="Q102"/>
-      <c r="R102"/>
-      <c r="S102"/>
-      <c r="T102"/>
-      <c r="U102"/>
-      <c r="V102"/>
-      <c r="W102"/>
-      <c r="X102"/>
-      <c r="Y102"/>
-      <c r="Z102"/>
-      <c r="AA102"/>
-      <c r="AB102"/>
-      <c r="AC102"/>
-      <c r="AD102"/>
-      <c r="AE102"/>
     </row>
     <row r="103" spans="1:31">
       <c r="A103" s="3" t="s">
